--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DF0FC-EF13-4532-A6B8-1A1F74B64128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E884555-BDB8-4912-8B6E-055AC9F20CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,8 +468,8 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="1">
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
